--- a/AEMostofa/Meherpur WD Division/P1/Hydrologic  Design/Hydraulogic_Design_output.xlsx
+++ b/AEMostofa/Meherpur WD Division/P1/Hydrologic  Design/Hydraulogic_Design_output.xlsx
@@ -1,28 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Design_All_DC_5\AEMostofa\Meherpur WD Division\P1\Hydrologic  Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637DBFE7-0BE4-4D73-9990-4D849AA5B62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7835A19-0B15-4E78-982E-A75EA422D803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Design_Q" sheetId="2" r:id="rId2"/>
     <sheet name="Hydralic_Design" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>weblink</t>
   </si>
@@ -94,6 +105,12 @@
   </si>
   <si>
     <t>Ichamoti Khal</t>
+  </si>
+  <si>
+    <t>FK1</t>
+  </si>
+  <si>
+    <t>Anonymous Khal</t>
   </si>
   <si>
     <t>Traial No</t>
@@ -505,14 +522,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S223"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
@@ -688,19 +703,63 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>2.5107372644783599</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.553760099440646</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F4" s="6">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6">
+        <v>340</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="I4" s="6">
+        <v>248.2</v>
+      </c>
+      <c r="J4" s="6">
+        <v>25.417883067792459</v>
+      </c>
+      <c r="K4" s="6">
+        <v>-40</v>
+      </c>
+      <c r="L4" s="6">
+        <v>148.91999999999999</v>
+      </c>
+      <c r="M4" s="6">
+        <v>66.861578419402051</v>
+      </c>
+      <c r="N4" s="6">
+        <v>248.4902625821735</v>
+      </c>
+      <c r="O4" s="6">
+        <v>623.89376212507568</v>
+      </c>
+      <c r="P4" s="6">
+        <v>17.667037495754531</v>
+      </c>
+      <c r="Q4">
+        <v>9</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D5" s="6"/>
@@ -3997,27 +4056,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
